--- a/datosEmpresa.xlsx
+++ b/datosEmpresa.xlsx
@@ -212,6 +212,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -233,6 +234,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,8 +319,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36:J36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,7 +328,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.46"/>

--- a/datosEmpresa.xlsx
+++ b/datosEmpresa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
   <si>
     <t xml:space="preserve">codPedido</t>
   </si>
@@ -40,18 +40,18 @@
     <t xml:space="preserve">valorComercial</t>
   </si>
   <si>
+    <t xml:space="preserve">codMaquina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiempoProceso</t>
+  </si>
+  <si>
     <t xml:space="preserve">fechaEntrega</t>
   </si>
   <si>
-    <t xml:space="preserve">codMaquina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiempoProceso</t>
-  </si>
-  <si>
     <t xml:space="preserve">primero</t>
   </si>
   <si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">NPR</t>
   </si>
   <si>
+    <t xml:space="preserve">12-03-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">segundo</t>
   </si>
   <si>
@@ -73,12 +76,18 @@
     <t xml:space="preserve">M3</t>
   </si>
   <si>
+    <t xml:space="preserve">13-04-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">tercero</t>
   </si>
   <si>
     <t xml:space="preserve">tipo3</t>
   </si>
   <si>
+    <t xml:space="preserve">15-05-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">cuarto</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t xml:space="preserve">PRG</t>
   </si>
   <si>
+    <t xml:space="preserve">16-06-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">quinto</t>
   </si>
   <si>
@@ -100,22 +112,40 @@
     <t xml:space="preserve">PRC</t>
   </si>
   <si>
+    <t xml:space="preserve">17-07-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">sexto</t>
   </si>
   <si>
     <t xml:space="preserve">TRM</t>
   </si>
   <si>
+    <t xml:space="preserve">14-08-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">septimo</t>
   </si>
   <si>
+    <t xml:space="preserve">02-09-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">octavo</t>
   </si>
   <si>
+    <t xml:space="preserve">11-10-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">noveno </t>
   </si>
   <si>
+    <t xml:space="preserve">21-11-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">decimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-18</t>
   </si>
   <si>
     <t xml:space="preserve">decimoprimero</t>
@@ -205,13 +235,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -233,6 +264,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,6 +337,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -315,10 +362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36:J36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BS492" activeCellId="0" sqref="BS492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,12 +373,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="12" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,7 +400,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -362,7 +409,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -385,17 +432,17 @@
       <c r="F2" s="1" t="n">
         <v>155000</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>43429</v>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="I2" s="1" t="n">
         <v>4.65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,10 +453,10 @@
         <v>1004</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1448</v>
@@ -417,17 +464,17 @@
       <c r="F3" s="1" t="n">
         <v>152040</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>43239</v>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="I3" s="1" t="n">
         <v>4.344</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,10 +485,10 @@
         <v>1014</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1024</v>
@@ -449,17 +496,17 @@
       <c r="F4" s="1" t="n">
         <v>144384</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>43252</v>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <v>3.072</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,10 +517,10 @@
         <v>1015</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1488</v>
@@ -481,17 +528,17 @@
       <c r="F5" s="1" t="n">
         <v>177072</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>43287</v>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>4.464</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,10 +549,10 @@
         <v>1047</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1557</v>
@@ -513,17 +560,17 @@
       <c r="F6" s="1" t="n">
         <v>180612</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>43346</v>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>4.671</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,7 +581,7 @@
         <v>1049</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -545,17 +592,17 @@
       <c r="F7" s="1" t="n">
         <v>209760</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>43383</v>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>4.56</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,10 +613,10 @@
         <v>1076</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1124</v>
@@ -577,17 +624,17 @@
       <c r="F8" s="1" t="n">
         <v>116896</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>43344</v>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>3.372</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,10 +645,10 @@
         <v>1099</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1482</v>
@@ -609,17 +656,17 @@
       <c r="F9" s="1" t="n">
         <v>222300</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>43220</v>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <v>4.446</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,7 +677,7 @@
         <v>1126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -641,17 +688,17 @@
       <c r="F10" s="1" t="n">
         <v>194472</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>43438</v>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>3.996</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,10 +709,10 @@
         <v>1190</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1622</v>
@@ -673,17 +720,17 @@
       <c r="F11" s="1" t="n">
         <v>225458</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>43418</v>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="n">
         <v>4.866</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,10 +741,10 @@
         <v>1193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1242</v>
@@ -705,17 +752,17 @@
       <c r="F12" s="1" t="n">
         <v>137862</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>43334</v>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="I12" s="1" t="n">
         <v>3.726</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,10 +773,10 @@
         <v>1200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>1233</v>
@@ -737,17 +784,17 @@
       <c r="F13" s="1" t="n">
         <v>152892</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>43417</v>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="I13" s="1" t="n">
         <v>3.699</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,10 +805,10 @@
         <v>1204</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>1460</v>
@@ -769,17 +816,17 @@
       <c r="F14" s="1" t="n">
         <v>147460</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>43122</v>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>4.38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,10 +837,10 @@
         <v>1205</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>1232</v>
@@ -801,17 +848,17 @@
       <c r="F15" s="1" t="n">
         <v>184800</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>43319</v>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <v>3.696</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,10 +869,10 @@
         <v>1211</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>1375</v>
@@ -833,17 +880,17 @@
       <c r="F16" s="1" t="n">
         <v>178750</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>43279</v>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>4.125</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,10 +901,10 @@
         <v>1212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1334</v>
@@ -865,17 +912,17 @@
       <c r="F17" s="1" t="n">
         <v>162748</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>43108</v>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="I17" s="1" t="n">
         <v>4.002</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,10 +933,10 @@
         <v>1233</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>1419</v>
@@ -897,17 +944,17 @@
       <c r="F18" s="1" t="n">
         <v>171699</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>43442</v>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="n">
         <v>4.257</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,10 +965,10 @@
         <v>1257</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1008</v>
@@ -929,17 +976,17 @@
       <c r="F19" s="1" t="n">
         <v>115920</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>43264</v>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="n">
         <v>3.024</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,7 +997,7 @@
         <v>1300</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -961,17 +1008,17 @@
       <c r="F20" s="1" t="n">
         <v>164500</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>43349</v>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="n">
         <v>4.935</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,10 +1029,10 @@
         <v>1358</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>1283</v>
@@ -993,17 +1040,17 @@
       <c r="F21" s="1" t="n">
         <v>162941</v>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>43434</v>
+      <c r="G21" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I21" s="1" t="n">
         <v>3.849</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1014,10 +1061,10 @@
         <v>1396</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>1324</v>
@@ -1025,17 +1072,17 @@
       <c r="F22" s="1" t="n">
         <v>149612</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>43418</v>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="n">
         <v>3.972</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1093,10 @@
         <v>1441</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>1287</v>
@@ -1057,18 +1104,19 @@
       <c r="F23" s="1" t="n">
         <v>159588</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>43443</v>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="I23" s="1" t="n">
         <v>3.861</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -1078,10 +1126,10 @@
         <v>1443</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>1135</v>
@@ -1089,17 +1137,17 @@
       <c r="F24" s="1" t="n">
         <v>146415</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>43117</v>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="I24" s="1" t="n">
         <v>3.405</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,10 +1158,10 @@
         <v>1450</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>1580</v>
@@ -1121,17 +1169,17 @@
       <c r="F25" s="1" t="n">
         <v>235420</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>43137</v>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="I25" s="1" t="n">
         <v>4.74</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,10 +1190,10 @@
         <v>1454</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>1200</v>
@@ -1153,17 +1201,17 @@
       <c r="F26" s="1" t="n">
         <v>147600</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>47058</v>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="I26" s="1" t="n">
         <v>3.6</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,10 +1222,10 @@
         <v>1457</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>1544</v>
@@ -1185,17 +1233,17 @@
       <c r="F27" s="1" t="n">
         <v>217704</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>43232</v>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="I27" s="1" t="n">
         <v>4.632</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,10 +1254,10 @@
         <v>1462</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>1328</v>
@@ -1217,17 +1265,17 @@
       <c r="F28" s="1" t="n">
         <v>144752</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>43266</v>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I28" s="1" t="n">
         <v>3.984</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,10 +1286,10 @@
         <v>1469</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>1492</v>
@@ -1249,17 +1297,17 @@
       <c r="F29" s="1" t="n">
         <v>190976</v>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>43262</v>
+      <c r="G29" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="n">
         <v>4.476</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1318,10 @@
         <v>1495</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>1368</v>
@@ -1281,17 +1329,17 @@
       <c r="F30" s="1" t="n">
         <v>165528</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>43344</v>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="I30" s="1" t="n">
         <v>4.104</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,10 +1350,10 @@
         <v>1675</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>1799</v>
@@ -1313,197 +1361,17 @@
       <c r="F31" s="1" t="n">
         <v>251860</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>43363</v>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="I31" s="1" t="n">
         <v>5.397</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6696</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6943</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6897</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6691</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6834</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6764</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6691</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6866</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6729</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6878</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6914</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6766</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6791</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6831</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6726</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6680</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6681</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6920</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6880</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6836</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6836</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6887</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6696</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6816</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6749</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6791</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6907</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6707</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="2" t="n">
-        <f aca="false">RANDBETWEEN(6680,6980)</f>
-        <v>6863</v>
+      <c r="J31" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
